--- a/AfDD_2025_Annex_Table_Tab20.xlsx
+++ b/AfDD_2025_Annex_Table_Tab20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E82EFF50-CDAD-426D-A2D6-104FEA6B5BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD682A95-F765-495B-9298-47DC748FC202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{F5EDA269-A454-455F-81E7-9D73A774EB76}"/>
+    <workbookView xWindow="28680" yWindow="-6075" windowWidth="29040" windowHeight="15720" xr2:uid="{10F97916-0EC7-4808-86E4-57690A6AAEC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab20" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="179">
   <si>
     <t>Table 20: Infrastructure stock</t>
   </si>
@@ -48,13 +48,13 @@
     <t>Country (Resource-rich countries are shaded)</t>
   </si>
   <si>
-    <t>Road density (km of paved road per km² of land area), most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>Rail density (km of rail per km² of land area), most recent measure 2015-24</t>
-  </si>
-  <si>
-    <t>ICT cables density (km of terrestrial cable per km² of land area), most recent measure 2015-24</t>
+    <t>Road density (km of paved road per km2 of land area), most recent measure 2015-24</t>
+  </si>
+  <si>
+    <t>Rail density (km of rail per km2 of land area), most recent measure 2015-24</t>
+  </si>
+  <si>
+    <t>ICT cables density (km of terrestrial cable per km2 of land area), most recent measure 2015-24</t>
   </si>
   <si>
     <t>Installed electrical capacity density (MW/km2), most recent measure 2015-24</t>
@@ -555,7 +555,7 @@
     <t>ROW = "Rest of world"; LAC = "Latin American and Caribbean countries".</t>
   </si>
   <si>
-    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
+    <t>Regional Economic Communities: CEN-SAD = "Community of Sahel-Saharan States"; COMESA = "Common Market for Eastern and Southern Africa"; EAC = "East African Community"; ECCAS = "Economic Community of Central African States"; ECOWAS = "Economic Community of West African States"; IGAD = "Intergovernmental Authority on Development"; SADC = "Southern African Development Community"; UMA = "Arab Maghreb Union"; PALOP = "Países Africanos de Língua Oficial Portuguesa Portuguesa"; ASEAN = "Association of Southeast Asian Nations"; MERCOSUR = "Mercado Común del Sur". EU27 = "European Union (27 members)". OECD = "Organisation for Economic Co-operation and Development".</t>
   </si>
   <si>
     <t>Source: OECD Development centre calculations based on various datasets (2025), World Bank World Development Indicators (database and data releases from central banks, national statistical agencies, and World Bank country desks - 03/07/2025)</t>
@@ -564,16 +564,16 @@
     <t>CLICK HERE to visit the website where you can find the Africa's Development Dynamics report, and where you can find links to explore these data further and look up historic values for these indicators.</t>
   </si>
   <si>
+    <t>CLICK HERE to go to the list of indicators, descriptions and details for more information about the indicators presented in this table.</t>
+  </si>
+  <si>
+    <t>CLICK HERE to go the list of countries, and country groupings used for aggregating indicators and see which countries belong to each country grouping.</t>
+  </si>
+  <si>
     <t>CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000 (in a compressed file format).</t>
   </si>
   <si>
-    <t>For more information about the indicators presented in this table, go to the List of indicators, descriptions and details, click here.</t>
-  </si>
-  <si>
-    <t>To see which countries belong to each country grouping, see the list of countries, and country groupings used for aggregating indicators, click here.</t>
-  </si>
-  <si>
-    <t>To see the full list of sources used in the Statistical Annex, click here.</t>
+    <t>CLICK HERE to go to the full list of sources used in the Statistical Annex, click here.</t>
   </si>
 </sst>
 </file>
@@ -584,7 +584,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,16 +716,6 @@
       <u/>
       <sz val="12"/>
       <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FFA54917"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -952,7 +942,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1183,7 +1173,6 @@
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
@@ -1467,11 +1456,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6715E6-4124-40C2-A111-F34623CEA9C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A50297C7-10D6-4584-8A47-E5069D1D998F}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Q113"/>
+  <dimension ref="A1:Q114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -1479,7 +1468,7 @@
   <cols>
     <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="17" width="14.453125" style="81" customWidth="1"/>
+    <col min="3" max="17" width="14.453125" style="80" customWidth="1"/>
     <col min="18" max="26" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1749,7 +1738,9 @@
       <c r="K6" s="19">
         <v>1.56</v>
       </c>
-      <c r="L6" s="19"/>
+      <c r="L6" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="M6" s="20">
         <v>0.28999999999999998</v>
       </c>
@@ -1800,7 +1791,9 @@
       <c r="K7" s="19">
         <v>2.0699999999999998</v>
       </c>
-      <c r="L7" s="19"/>
+      <c r="L7" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="M7" s="20">
         <v>0.33</v>
       </c>
@@ -2167,7 +2160,9 @@
       <c r="K14" s="19">
         <v>0</v>
       </c>
-      <c r="L14" s="19"/>
+      <c r="L14" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="M14" s="20">
         <v>0.4</v>
       </c>
@@ -2271,7 +2266,9 @@
       <c r="K16" s="19">
         <v>0</v>
       </c>
-      <c r="L16" s="19"/>
+      <c r="L16" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="M16" s="20">
         <v>0.51</v>
       </c>
@@ -2587,7 +2584,9 @@
       <c r="K22" s="37">
         <v>0</v>
       </c>
-      <c r="L22" s="37"/>
+      <c r="L22" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="M22" s="38">
         <v>0.4</v>
       </c>
@@ -2689,7 +2688,9 @@
       <c r="K24" s="41">
         <v>0</v>
       </c>
-      <c r="L24" s="41"/>
+      <c r="L24" s="41" t="s">
+        <v>20</v>
+      </c>
       <c r="M24" s="42">
         <v>0.4</v>
       </c>
@@ -2740,7 +2741,9 @@
       <c r="K25" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L25" s="19"/>
+      <c r="L25" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="M25" s="20" t="s">
         <v>20</v>
       </c>
@@ -3109,7 +3112,9 @@
       <c r="K32" s="19">
         <v>0</v>
       </c>
-      <c r="L32" s="19"/>
+      <c r="L32" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="M32" s="20">
         <v>0.14000000000000001</v>
       </c>
@@ -3160,7 +3165,9 @@
       <c r="K33" s="19">
         <v>0</v>
       </c>
-      <c r="L33" s="19"/>
+      <c r="L33" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="M33" s="20">
         <v>0.6</v>
       </c>
@@ -3633,7 +3640,9 @@
       <c r="K42" s="33">
         <v>2.2200000000000002</v>
       </c>
-      <c r="L42" s="33"/>
+      <c r="L42" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="M42" s="34">
         <v>0.38</v>
       </c>
@@ -3947,7 +3956,9 @@
       <c r="K48" s="33">
         <v>0</v>
       </c>
-      <c r="L48" s="33"/>
+      <c r="L48" s="33" t="s">
+        <v>20</v>
+      </c>
       <c r="M48" s="34">
         <v>0.33</v>
       </c>
@@ -4051,7 +4062,9 @@
       <c r="K50" s="19">
         <v>0</v>
       </c>
-      <c r="L50" s="19"/>
+      <c r="L50" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="M50" s="20">
         <v>0.17</v>
       </c>
@@ -4155,7 +4168,9 @@
       <c r="K52" s="19">
         <v>1.42</v>
       </c>
-      <c r="L52" s="19"/>
+      <c r="L52" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="M52" s="20">
         <v>0.31</v>
       </c>
@@ -4206,7 +4221,9 @@
       <c r="K53" s="19">
         <v>0</v>
       </c>
-      <c r="L53" s="19"/>
+      <c r="L53" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="M53" s="20">
         <v>0.45</v>
       </c>
@@ -4257,7 +4274,9 @@
       <c r="K54" s="19">
         <v>2.76</v>
       </c>
-      <c r="L54" s="19"/>
+      <c r="L54" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="M54" s="20">
         <v>0.49</v>
       </c>
@@ -4308,7 +4327,9 @@
       <c r="K55" s="19">
         <v>2.08</v>
       </c>
-      <c r="L55" s="19"/>
+      <c r="L55" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="M55" s="20">
         <v>0.28000000000000003</v>
       </c>
@@ -4518,7 +4539,9 @@
       <c r="K59" s="19">
         <v>1.46</v>
       </c>
-      <c r="L59" s="19"/>
+      <c r="L59" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="M59" s="20">
         <v>0.4</v>
       </c>
@@ -6680,10 +6703,8 @@
       <c r="P106" s="77"/>
       <c r="Q106" s="77"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B107" s="79" t="s">
-        <v>174</v>
-      </c>
+    <row r="107" spans="1:17" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B107" s="78"/>
       <c r="C107" s="77"/>
       <c r="D107" s="77"/>
       <c r="E107" s="77"/>
@@ -6701,7 +6722,9 @@
       <c r="Q107" s="77"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B108" s="2"/>
+      <c r="B108" s="81" t="s">
+        <v>174</v>
+      </c>
       <c r="C108" s="77"/>
       <c r="D108" s="77"/>
       <c r="E108" s="77"/>
@@ -6719,9 +6742,7 @@
       <c r="Q108" s="77"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B109" s="82" t="s">
-        <v>176</v>
-      </c>
+      <c r="B109" s="2"/>
       <c r="C109" s="77"/>
       <c r="D109" s="77"/>
       <c r="E109" s="77"/>
@@ -6739,8 +6760,8 @@
       <c r="Q109" s="77"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B110" s="82" t="s">
-        <v>177</v>
+      <c r="B110" s="81" t="s">
+        <v>175</v>
       </c>
       <c r="C110" s="77"/>
       <c r="D110" s="77"/>
@@ -6759,8 +6780,8 @@
       <c r="Q110" s="77"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B111" s="82" t="s">
-        <v>178</v>
+      <c r="B111" s="81" t="s">
+        <v>176</v>
       </c>
       <c r="C111" s="77"/>
       <c r="D111" s="77"/>
@@ -6779,8 +6800,8 @@
       <c r="Q111" s="77"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="B112" s="2" t="s">
-        <v>175</v>
+      <c r="B112" s="81" t="s">
+        <v>178</v>
       </c>
       <c r="C112" s="77"/>
       <c r="D112" s="77"/>
@@ -6799,7 +6820,9 @@
       <c r="Q112" s="77"/>
     </row>
     <row r="113" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B113" s="80"/>
+      <c r="B113" s="81" t="s">
+        <v>177</v>
+      </c>
       <c r="C113" s="77"/>
       <c r="D113" s="77"/>
       <c r="E113" s="77"/>
@@ -6816,17 +6839,34 @@
       <c r="P113" s="77"/>
       <c r="Q113" s="77"/>
     </row>
+    <row r="114" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B114" s="79"/>
+      <c r="C114" s="77"/>
+      <c r="D114" s="77"/>
+      <c r="E114" s="77"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="77"/>
+      <c r="H114" s="77"/>
+      <c r="I114" s="77"/>
+      <c r="J114" s="77"/>
+      <c r="K114" s="77"/>
+      <c r="L114" s="77"/>
+      <c r="M114" s="77"/>
+      <c r="N114" s="77"/>
+      <c r="O114" s="77"/>
+      <c r="P114" s="77"/>
+      <c r="Q114" s="77"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B113" r:id="rId1" display="To download the entire dataset as a flat file in compressed CSV form, click here." xr:uid="{4CD86A01-47AB-4323-BE99-513E57EDAC44}"/>
-    <hyperlink ref="B109" r:id="rId2" xr:uid="{261D0B82-8BC7-4212-85D9-04162DC5EB0F}"/>
-    <hyperlink ref="B110" r:id="rId3" xr:uid="{61B00193-A78B-47C2-AFEA-A111103F434D}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{F39DFA5E-B507-41A0-BFDB-6B9B67951D21}"/>
-    <hyperlink ref="B112" r:id="rId5" display="CLICK HERE to download all data for the Africa's Development Dynamics Statistical Annex in an Excel format, including historic data back to 2000." xr:uid="{39D0DC39-1E90-407E-9B00-78F992E6E441}"/>
-    <hyperlink ref="B111" r:id="rId6" xr:uid="{17C4A1C4-6E6A-4013-A25D-0736BA3EAE7F}"/>
+    <hyperlink ref="B110" r:id="rId1" xr:uid="{818A0D16-A866-487A-8496-DC271BA70141}"/>
+    <hyperlink ref="B111" r:id="rId2" xr:uid="{45B62DA3-0D12-49A8-8554-BEAE4AB0FDA0}"/>
+    <hyperlink ref="B108" r:id="rId3" xr:uid="{0EFE5B7A-4A82-4BB8-80B8-6003664D2437}"/>
+    <hyperlink ref="B113" r:id="rId4" xr:uid="{B93C1370-B6DF-4A2B-8B16-B53FB66DA956}"/>
+    <hyperlink ref="B112" r:id="rId5" xr:uid="{DF9AE937-1409-4044-A7A7-F9921A303A5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" scale="49" fitToWidth="0" orientation="portrait" r:id="rId6"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
   </headerFooter>
